--- a/result_dospproj2.xlsx
+++ b/result_dospproj2.xlsx
@@ -2,41 +2,30 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manav\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shubh\Documents\UFProject\DOSP\dosp_proj_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCDABA8B-C91A-4F1B-8849-0D16BA900F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1874CA9-0CBD-41C5-A4F4-EF1DFE7407A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{5326D3A0-1F70-414E-B15F-6E1783811417}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5326D3A0-1F70-414E-B15F-6E1783811417}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>line</t>
   </si>
@@ -45,21 +34,6 @@
   </si>
   <si>
     <t>full</t>
-  </si>
-  <si>
-    <t>3d imperfect</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
   </si>
   <si>
     <t>3d imperfect gossip</t>
@@ -72,7 +46,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,16 +54,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -97,12 +85,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -238,11 +243,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$2:$A$12</c15:sqref>
+                    <c15:sqref>Sheet1!$A$2:$A$11</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$A$3:$A$8,Sheet1!$A$10,Sheet1!$A$12)</c:f>
+              <c:f>(Sheet1!$A$2:$A$7,Sheet1!$A$9,Sheet1!$A$11)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -278,11 +283,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$2:$B$12</c15:sqref>
+                    <c15:sqref>Sheet1!$B$2:$B$11</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$B$3:$B$8,Sheet1!$B$10,Sheet1!$B$12)</c:f>
+              <c:f>(Sheet1!$B$2:$B$7,Sheet1!$B$9,Sheet1!$B$11)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -363,11 +368,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$2:$A$12</c15:sqref>
+                    <c15:sqref>Sheet1!$A$2:$A$11</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$A$3:$A$8,Sheet1!$A$10,Sheet1!$A$12)</c:f>
+              <c:f>(Sheet1!$A$2:$A$7,Sheet1!$A$9,Sheet1!$A$11)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -403,11 +408,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$C$2:$C$12</c15:sqref>
+                    <c15:sqref>Sheet1!$C$2:$C$11</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$C$3:$C$8,Sheet1!$C$10,Sheet1!$C$12)</c:f>
+              <c:f>(Sheet1!$C$2:$C$7,Sheet1!$C$9,Sheet1!$C$11)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -488,11 +493,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$2:$A$12</c15:sqref>
+                    <c15:sqref>Sheet1!$A$2:$A$11</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$A$3:$A$8,Sheet1!$A$10,Sheet1!$A$12)</c:f>
+              <c:f>(Sheet1!$A$2:$A$7,Sheet1!$A$9,Sheet1!$A$11)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -528,11 +533,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$D$2:$D$12</c15:sqref>
+                    <c15:sqref>Sheet1!$D$2:$D$11</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$D$3:$D$8,Sheet1!$D$10,Sheet1!$D$12)</c:f>
+              <c:f>(Sheet1!$D$2:$D$7,Sheet1!$D$9,Sheet1!$D$11)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -806,6 +811,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.33246668063395252"/>
+          <c:y val="3.1566598065240953E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -846,7 +859,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$17</c:f>
+              <c:f>Sheet1!$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -869,7 +882,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$18:$A$25</c:f>
+              <c:f>Sheet1!$A$17:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -902,7 +915,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$18:$B$25</c:f>
+              <c:f>Sheet1!$B$17:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1192,9 +1205,9 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$1:$I$2</c:f>
+              <c:f>Sheet1!$I$1:$I$1</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>line</c:v>
                 </c:pt>
@@ -1230,11 +1243,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$H$3:$H$12</c15:sqref>
+                    <c15:sqref>Sheet1!$H$2:$H$11</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$H$3:$H$8,Sheet1!$H$10,Sheet1!$H$12)</c:f>
+              <c:f>(Sheet1!$H$2:$H$7,Sheet1!$H$9,Sheet1!$H$11)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1270,11 +1283,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$I$3:$I$12</c15:sqref>
+                    <c15:sqref>Sheet1!$I$2:$I$11</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$I$3:$I$8,Sheet1!$I$10,Sheet1!$I$12)</c:f>
+              <c:f>(Sheet1!$I$2:$I$7,Sheet1!$I$9,Sheet1!$I$11)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1317,9 +1330,9 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$1:$J$2</c:f>
+              <c:f>Sheet1!$J$1:$J$1</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>3d</c:v>
                 </c:pt>
@@ -1355,11 +1368,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$H$3:$H$12</c15:sqref>
+                    <c15:sqref>Sheet1!$H$2:$H$11</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$H$3:$H$8,Sheet1!$H$10,Sheet1!$H$12)</c:f>
+              <c:f>(Sheet1!$H$2:$H$7,Sheet1!$H$9,Sheet1!$H$11)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1395,11 +1408,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$J$3:$J$12</c15:sqref>
+                    <c15:sqref>Sheet1!$J$2:$J$11</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$J$3:$J$8,Sheet1!$J$10,Sheet1!$J$12)</c:f>
+              <c:f>(Sheet1!$J$2:$J$7,Sheet1!$J$9,Sheet1!$J$11)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1442,9 +1455,9 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$1:$K$2</c:f>
+              <c:f>Sheet1!$K$1:$K$1</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>full</c:v>
                 </c:pt>
@@ -1480,11 +1493,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$H$3:$H$12</c15:sqref>
+                    <c15:sqref>Sheet1!$H$2:$H$11</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$H$3:$H$8,Sheet1!$H$10,Sheet1!$H$12)</c:f>
+              <c:f>(Sheet1!$H$2:$H$7,Sheet1!$H$9,Sheet1!$H$11)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1520,11 +1533,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$K$3:$K$12</c15:sqref>
+                    <c15:sqref>Sheet1!$K$2:$K$11</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$K$3:$K$8,Sheet1!$K$10,Sheet1!$K$12)</c:f>
+              <c:f>(Sheet1!$K$2:$K$7,Sheet1!$K$9,Sheet1!$K$11)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1820,7 +1833,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$3</c:f>
+              <c:f>Sheet1!$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1843,7 +1856,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$M$4:$M$11</c:f>
+              <c:f>Sheet1!$M$3:$M$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1876,7 +1889,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$4:$N$11</c:f>
+              <c:f>Sheet1!$N$3:$N$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4280,15 +4293,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>39666</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>348119</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4316,16 +4329,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>3392</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>120107</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>311846</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4352,16 +4365,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>8482</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>97925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>313282</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>179343</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4390,13 +4403,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4742,402 +4755,441 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5AB4887-54D3-419C-8EE7-0013C6D6A09C}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y22" sqref="Y22"/>
+    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.114078</v>
+      </c>
+      <c r="C2" s="1">
+        <v>8.0311099999999996E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.24413699999999999</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I2" s="1">
+        <v>3.0747400000000001E-2</v>
+      </c>
+      <c r="J2" s="1">
+        <v>6.6918900000000003E-2</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.37005500000000002</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1000</v>
-      </c>
-      <c r="B3">
-        <v>0.114078</v>
-      </c>
-      <c r="C3">
-        <v>8.0311099999999996E-2</v>
-      </c>
-      <c r="D3">
-        <v>0.24413699999999999</v>
-      </c>
-      <c r="H3">
-        <v>1000</v>
-      </c>
-      <c r="I3">
-        <v>3.0747400000000001E-2</v>
-      </c>
-      <c r="J3">
-        <v>6.6918900000000003E-2</v>
-      </c>
-      <c r="K3">
-        <v>0.37005500000000002</v>
-      </c>
-      <c r="N3" t="s">
-        <v>9</v>
+      <c r="A3" s="1">
+        <v>1200</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.176511</v>
+      </c>
+      <c r="C3" s="1">
+        <v>9.9865800000000005E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.398287</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1200</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.154221</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.124377</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.29426200000000002</v>
+      </c>
+      <c r="M3" s="1">
+        <v>100</v>
+      </c>
+      <c r="N3" s="1">
+        <v>2.0033999999999998E-3</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1200</v>
-      </c>
-      <c r="B4">
-        <v>0.176511</v>
-      </c>
-      <c r="C4">
-        <v>9.9865800000000005E-2</v>
-      </c>
-      <c r="D4">
-        <v>0.398287</v>
-      </c>
-      <c r="H4">
-        <v>1200</v>
-      </c>
-      <c r="I4">
-        <v>0.154221</v>
-      </c>
-      <c r="J4">
-        <v>0.124377</v>
-      </c>
-      <c r="K4">
-        <v>0.29426200000000002</v>
-      </c>
-      <c r="M4">
-        <v>100</v>
-      </c>
-      <c r="N4">
-        <v>2.0033999999999998E-3</v>
+      <c r="A4" s="1">
+        <v>1400</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.26245400000000002</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.127971</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.57102399999999998</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1400</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.37184899999999999</v>
+      </c>
+      <c r="J4" s="1">
+        <v>8.8692900000000005E-2</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.63843799999999995</v>
+      </c>
+      <c r="M4" s="1">
+        <v>200</v>
+      </c>
+      <c r="N4" s="1">
+        <v>9.0510099999999996E-2</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1400</v>
-      </c>
-      <c r="B5">
-        <v>0.26245400000000002</v>
-      </c>
-      <c r="C5">
-        <v>0.127971</v>
-      </c>
-      <c r="D5">
-        <v>0.57102399999999998</v>
-      </c>
-      <c r="H5">
-        <v>1400</v>
-      </c>
-      <c r="I5">
-        <v>0.37184899999999999</v>
-      </c>
-      <c r="J5">
-        <v>8.8692900000000005E-2</v>
-      </c>
-      <c r="K5">
-        <v>0.63843799999999995</v>
-      </c>
-      <c r="M5">
-        <v>200</v>
-      </c>
-      <c r="N5">
-        <v>9.0510099999999996E-2</v>
+      <c r="A5" s="1">
+        <v>1600</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.32736100000000001</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.13408600000000001</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.65149199999999996</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1600</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.66402600000000001</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.118509</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.74010900000000002</v>
+      </c>
+      <c r="M5" s="1">
+        <v>300</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.107685</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1600</v>
-      </c>
-      <c r="B6">
-        <v>0.32736100000000001</v>
-      </c>
-      <c r="C6">
-        <v>0.13408600000000001</v>
-      </c>
-      <c r="D6">
-        <v>0.65149199999999996</v>
-      </c>
-      <c r="H6">
-        <v>1600</v>
-      </c>
-      <c r="I6">
-        <v>0.66402600000000001</v>
-      </c>
-      <c r="J6">
-        <v>0.118509</v>
-      </c>
-      <c r="K6">
-        <v>0.74010900000000002</v>
-      </c>
-      <c r="M6">
-        <v>300</v>
-      </c>
-      <c r="N6">
-        <v>0.107685</v>
+      <c r="A6" s="1">
+        <v>1800</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.82077800000000001</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.137074</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.76502499999999996</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1800</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.35059099999999999</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.161413</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1.0996300000000001</v>
+      </c>
+      <c r="M6" s="1">
+        <v>400</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.12144000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1800</v>
-      </c>
-      <c r="B7">
-        <v>0.82077800000000001</v>
-      </c>
-      <c r="C7">
-        <v>0.137074</v>
-      </c>
-      <c r="D7">
-        <v>0.76502499999999996</v>
-      </c>
-      <c r="H7">
-        <v>1800</v>
-      </c>
-      <c r="I7">
-        <v>0.35059099999999999</v>
-      </c>
-      <c r="J7">
-        <v>0.161413</v>
-      </c>
-      <c r="K7">
-        <v>1.0996300000000001</v>
-      </c>
-      <c r="M7">
-        <v>400</v>
-      </c>
-      <c r="N7">
-        <v>0.12144000000000001</v>
+      <c r="A7" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.2252700000000001</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.15154599999999999</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.81315199999999999</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.54527899999999996</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.2024</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1.2005600000000001</v>
+      </c>
+      <c r="M7" s="1">
+        <v>500</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.30740600000000001</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2000</v>
-      </c>
-      <c r="B8">
-        <v>1.2252700000000001</v>
-      </c>
-      <c r="C8">
-        <v>0.15154599999999999</v>
-      </c>
-      <c r="D8">
-        <v>0.81315199999999999</v>
-      </c>
-      <c r="H8">
-        <v>2000</v>
-      </c>
-      <c r="I8">
-        <v>0.54527899999999996</v>
-      </c>
-      <c r="J8">
-        <v>0.2024</v>
-      </c>
-      <c r="K8">
-        <v>1.2005600000000001</v>
-      </c>
-      <c r="M8">
-        <v>500</v>
-      </c>
-      <c r="N8">
-        <v>0.30740600000000001</v>
+      <c r="A8" s="1">
+        <v>2250</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="H8" s="1">
+        <v>2250</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="M8" s="1">
+        <v>600</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.59204599999999996</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2250</v>
-      </c>
-      <c r="H9">
-        <v>2250</v>
-      </c>
-      <c r="M9">
-        <v>600</v>
-      </c>
-      <c r="N9">
-        <v>0.59204599999999996</v>
+      <c r="A9" s="1">
+        <v>2500</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.74377</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.235458</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.92987500000000001</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2500</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.78722899999999996</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.31191099999999999</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1.81009</v>
+      </c>
+      <c r="M9" s="1">
+        <v>700</v>
+      </c>
+      <c r="N9" s="1">
+        <v>3.3696999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2500</v>
-      </c>
-      <c r="B10">
-        <v>1.74377</v>
-      </c>
-      <c r="C10">
-        <v>0.235458</v>
-      </c>
-      <c r="D10">
-        <v>0.92987500000000001</v>
-      </c>
-      <c r="H10">
-        <v>2500</v>
-      </c>
-      <c r="I10">
-        <v>0.78722899999999996</v>
-      </c>
-      <c r="J10">
-        <v>0.31191099999999999</v>
-      </c>
-      <c r="K10">
-        <v>1.81009</v>
-      </c>
-      <c r="M10">
-        <v>700</v>
-      </c>
-      <c r="N10">
-        <v>3.3696999999999999</v>
+      <c r="A10" s="1">
+        <v>2750</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="H10" s="1">
+        <v>2750</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="M10" s="1">
+        <v>800</v>
+      </c>
+      <c r="N10" s="1">
+        <v>3.4699399999999998</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2750</v>
-      </c>
-      <c r="H11">
-        <v>2750</v>
-      </c>
-      <c r="M11">
-        <v>800</v>
-      </c>
-      <c r="N11">
-        <v>3.4699399999999998</v>
+      <c r="A11" s="1">
+        <v>3000</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2.5735899999999998</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.25365500000000002</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.4586300000000001</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I11" s="1">
+        <v>3.84667</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.34959899999999999</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2.1951399999999999</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>3000</v>
-      </c>
-      <c r="B12">
-        <v>2.5735899999999998</v>
-      </c>
-      <c r="C12">
-        <v>0.25365500000000002</v>
-      </c>
-      <c r="D12">
-        <v>1.4586300000000001</v>
-      </c>
-      <c r="H12">
-        <v>3000</v>
-      </c>
-      <c r="I12">
-        <v>3.84667</v>
-      </c>
-      <c r="J12">
-        <v>0.34959899999999999</v>
-      </c>
-      <c r="K12">
-        <v>2.1951399999999999</v>
-      </c>
+      <c r="A12" s="1">
+        <v>3500</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="H12" s="1">
+        <v>3500</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>3500</v>
-      </c>
-      <c r="H13">
-        <v>3500</v>
-      </c>
+      <c r="A13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B13" s="1">
+        <v>35.601399999999998</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3.7538999999999998</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="H13" s="1">
+        <v>4000</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>4000</v>
-      </c>
-      <c r="H14">
-        <v>4000</v>
-      </c>
+      <c r="A14" s="1">
+        <v>15000</v>
+      </c>
+      <c r="B14" s="1">
+        <v>275.286</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4.3901000000000003</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="H14" s="1">
+        <v>5000</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>5000</v>
-      </c>
-      <c r="H15">
-        <v>5000</v>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>8</v>
+      <c r="A17" s="1">
+        <v>100</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3.00431E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>100</v>
-      </c>
-      <c r="B18">
-        <v>3.00431E-2</v>
+      <c r="A18" s="1">
+        <v>200</v>
+      </c>
+      <c r="B18" s="1">
+        <v>5.5772599999999999E-2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>200</v>
-      </c>
-      <c r="B19">
-        <v>5.5772599999999999E-2</v>
+      <c r="A19" s="1">
+        <v>300</v>
+      </c>
+      <c r="B19" s="1">
+        <v>9.5889699999999994E-2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>300</v>
-      </c>
-      <c r="B20">
-        <v>9.5889699999999994E-2</v>
+      <c r="A20" s="1">
+        <v>400</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.111508</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>400</v>
-      </c>
-      <c r="B21">
-        <v>0.111508</v>
+      <c r="A21" s="1">
+        <v>500</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1.7250300000000001</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>500</v>
-      </c>
-      <c r="B22">
-        <v>1.7250300000000001</v>
+      <c r="A22" s="1">
+        <v>600</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2.8698000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>600</v>
-      </c>
-      <c r="B23">
-        <v>2.8698000000000001</v>
+      <c r="A23" s="1">
+        <v>700</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2.9897100000000001</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>700</v>
-      </c>
-      <c r="B24">
-        <v>2.9897100000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A24" s="1">
         <v>800</v>
       </c>
-      <c r="B25">
+      <c r="B24" s="1">
         <v>4.2513500000000004</v>
       </c>
     </row>
